--- a/output/【河洛話注音】愛蓮說.xlsx
+++ b/output/【河洛話注音】愛蓮說.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FC9131-997C-4ED3-80EC-0F221798348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CED8C-C110-4470-BE87-517FBCFC9A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="499">
   <si>
     <t>〔thⁿi¹〕【ㄊㄧ¹】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,10 +1267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水陸草木之花，可愛者甚蕃；晉陶淵明獨愛菊。自李唐來，世人甚愛牡丹。予獨愛蓮之出淤泥而不染，濯清漣而不妖；中通外直，不蔓不枝；香遠益清，亭亭淨植，可遠觀而不可褻玩焉。
 予謂︰菊，花之隱逸者也；牡丹，花之富貴者也；蓮，花之君子者也。噫！菊之愛，陶後鮮有聞；蓮之愛，同予者何人？牡丹之愛，宜乎眾矣！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,9 +1413,6 @@
     <t>boo²</t>
   </si>
   <si>
-    <t>ㆠㆦㄜˋ</t>
-  </si>
-  <si>
     <t>tan¹</t>
   </si>
   <si>
@@ -1992,9 +1985,6 @@
     <t>〔lang⁵〕【ㄌㄤˊ】</t>
   </si>
   <si>
-    <t>〔boo²〕【ㆠㆦㄜˋ】</t>
-  </si>
-  <si>
     <t>〔tan¹〕【ㄉㄢˉ】</t>
   </si>
   <si>
@@ -2135,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~〔boo²〕【ㆠㆦˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆠㆦˋ</t>
   </si>
   <si>
@@ -2146,6 +2132,10 @@
   </si>
   <si>
     <t>hoo⁵</t>
+  </si>
+  <si>
+    <t>〔boo²〕【ㆠㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2927,7 +2917,7 @@
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3192,6 +3182,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3230,45 +3247,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4301,15 +4279,15 @@
         <v>206</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="115" t="s">
-        <v>345</v>
+      <c r="C5" s="95" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4325,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4337,7 +4315,7 @@
     <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.3984375" customWidth="1"/>
-    <col min="22" max="22" width="71.69921875" style="113" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="93" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4403,7 +4381,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="78"/>
-      <c r="V2" s="109">
+      <c r="V2" s="92">
         <f xml:space="preserve"> LEN(V3)</f>
         <v>146</v>
       </c>
@@ -4412,296 +4390,290 @@
       <c r="B3" s="83"/>
       <c r="C3" s="82"/>
       <c r="D3" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="G3" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="H3" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="I3" s="66" t="s">
         <v>431</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>433</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>433</v>
+      </c>
+      <c r="M3" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="N3" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="O3" s="66" t="s">
         <v>436</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>438</v>
       </c>
       <c r="P3" s="66"/>
       <c r="Q3" s="66" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="R3" s="66" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S3" s="67"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="110" t="s">
-        <v>212</v>
+      <c r="T3" s="96"/>
+      <c r="V3" s="98" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B4" s="84"/>
       <c r="D4" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M4" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N4" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P4" s="69"/>
       <c r="Q4" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R4" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S4" s="70"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="111"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B5" s="85">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="P5" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="S5" s="71"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="111"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="B6" s="86"/>
       <c r="C6" s="60"/>
       <c r="D6" s="87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L6" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N6" s="87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O6" s="87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P6" s="87"/>
       <c r="Q6" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R6" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S6" s="72"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="111"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="73"/>
       <c r="D7" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="G7" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="74" t="s">
         <v>442</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>444</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="M7" s="74" t="s">
         <v>446</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>448</v>
       </c>
       <c r="N7" s="74"/>
       <c r="O7" s="74" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P7" s="74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="R7" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="S7" s="75"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="111"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B8" s="84"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I8" s="69"/>
       <c r="J8" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M8" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N8" s="69"/>
       <c r="O8" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P8" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R8" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S8" s="70"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="111"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B9" s="85">
@@ -4710,195 +4682,194 @@
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="S9" s="71"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="111"/>
+      <c r="T9" s="96"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="86"/>
       <c r="C10" s="68"/>
       <c r="D10" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I10" s="87"/>
       <c r="J10" s="87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L10" s="87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N10" s="87"/>
       <c r="O10" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P10" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R10" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S10" s="76"/>
-      <c r="V10" s="111"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B11" s="83"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>453</v>
       </c>
-      <c r="H11" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="N11" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="K11" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="L11" s="74" t="s">
+      <c r="O11" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="P11" s="74" t="s">
         <v>456</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="Q11" s="74" t="s">
         <v>457</v>
-      </c>
-      <c r="O11" s="74" t="s">
-        <v>458</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q11" s="74" t="s">
-        <v>460</v>
       </c>
       <c r="R11" s="74"/>
       <c r="S11" s="75"/>
-      <c r="V11" s="111"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="B12" s="84"/>
       <c r="C12" s="68"/>
       <c r="D12" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="69" t="s">
         <v>259</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>261</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" s="69" t="s">
+      <c r="K12" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="69" t="s">
+      <c r="M12" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="N12" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="O12" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="P12" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="Q12" s="69" t="s">
         <v>275</v>
-      </c>
-      <c r="Q12" s="69" t="s">
-        <v>277</v>
       </c>
       <c r="R12" s="69"/>
       <c r="S12" s="70"/>
-      <c r="V12" s="111"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B13" s="85">
@@ -4907,193 +4878,193 @@
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="K13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="N13" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="S13" s="71"/>
-      <c r="V13" s="112"/>
+      <c r="V13" s="100"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="B14" s="86"/>
       <c r="C14" s="68"/>
       <c r="D14" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="87" t="s">
         <v>260</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>262</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="H14" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="87" t="s">
+      <c r="K14" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="K14" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="87" t="s">
+      <c r="M14" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="N14" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="N14" s="87" t="s">
+      <c r="O14" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="O14" s="87" t="s">
+      <c r="P14" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="P14" s="87" t="s">
+      <c r="Q14" s="87" t="s">
         <v>276</v>
-      </c>
-      <c r="Q14" s="87" t="s">
-        <v>278</v>
       </c>
       <c r="R14" s="87"/>
       <c r="S14" s="76"/>
-      <c r="V14" s="113"/>
+      <c r="V14" s="93"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B15" s="83"/>
       <c r="C15" s="73"/>
       <c r="D15" s="74" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="N15" s="74" t="s">
         <v>464</v>
-      </c>
-      <c r="L15" s="74" t="s">
-        <v>465</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="N15" s="74" t="s">
-        <v>467</v>
       </c>
       <c r="O15" s="74"/>
       <c r="P15" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="S15" s="75"/>
-      <c r="V15" s="114"/>
+      <c r="V15" s="94"/>
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1">
       <c r="B16" s="84"/>
       <c r="C16" s="68"/>
       <c r="D16" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="F16" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="69" t="s">
         <v>281</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>283</v>
       </c>
       <c r="J16" s="69"/>
       <c r="K16" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="M16" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="M16" s="69" t="s">
+      <c r="N16" s="69" t="s">
         <v>289</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>291</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R16" s="69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S16" s="70"/>
-      <c r="V16" s="113"/>
+      <c r="V16" s="93"/>
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B17" s="85">
@@ -5102,189 +5073,189 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="R17" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S17" s="71"/>
-      <c r="V17" s="113"/>
+      <c r="V17" s="93"/>
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1">
       <c r="B18" s="86"/>
       <c r="C18" s="68"/>
       <c r="D18" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="F18" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="87" t="s">
         <v>282</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="I18" s="87" t="s">
-        <v>284</v>
       </c>
       <c r="J18" s="87"/>
       <c r="K18" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="L18" s="87" t="s">
+      <c r="M18" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="N18" s="87" t="s">
         <v>290</v>
-      </c>
-      <c r="N18" s="87" t="s">
-        <v>292</v>
       </c>
       <c r="O18" s="87"/>
       <c r="P18" s="87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R18" s="87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S18" s="76"/>
-      <c r="V18" s="113"/>
+      <c r="V18" s="93"/>
     </row>
     <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B19" s="83"/>
       <c r="C19" s="73"/>
       <c r="D19" s="74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="74" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L19" s="74" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M19" s="74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N19" s="74" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O19" s="74"/>
       <c r="P19" s="74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R19" s="74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S19" s="75"/>
-      <c r="V19" s="114"/>
+      <c r="V19" s="94"/>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1">
       <c r="B20" s="84"/>
       <c r="C20" s="68"/>
       <c r="D20" s="69" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="H20" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="69" t="s">
-        <v>301</v>
-      </c>
       <c r="I20" s="69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J20" s="69"/>
       <c r="K20" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="L20" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="L20" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="69" t="s">
+      <c r="N20" s="69" t="s">
         <v>305</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>307</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R20" s="69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S20" s="70"/>
-      <c r="V20" s="113"/>
+      <c r="V20" s="93"/>
     </row>
     <row r="21" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B21" s="85">
@@ -5293,118 +5264,118 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F21" s="91" t="s">
+      <c r="H21" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="L21" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="S21" s="71"/>
-      <c r="V21" s="113"/>
+      <c r="V21" s="93"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1">
       <c r="B22" s="86"/>
       <c r="C22" s="68"/>
       <c r="D22" s="87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E22" s="87"/>
       <c r="F22" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="H22" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="87" t="s">
-        <v>302</v>
-      </c>
       <c r="I22" s="87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J22" s="87"/>
       <c r="K22" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="M22" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="L22" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="M22" s="87" t="s">
+      <c r="N22" s="87" t="s">
         <v>306</v>
-      </c>
-      <c r="N22" s="87" t="s">
-        <v>308</v>
       </c>
       <c r="O22" s="87"/>
       <c r="P22" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R22" s="87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S22" s="76"/>
-      <c r="V22" s="113"/>
+      <c r="V22" s="93"/>
     </row>
     <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B23" s="83"/>
       <c r="C23" s="73"/>
       <c r="D23" s="74" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
@@ -5416,28 +5387,28 @@
       <c r="Q23" s="74"/>
       <c r="R23" s="74"/>
       <c r="S23" s="75"/>
-      <c r="V23" s="114"/>
+      <c r="V23" s="94"/>
     </row>
     <row r="24" spans="2:22" s="2" customFormat="1">
       <c r="B24" s="84"/>
       <c r="C24" s="68"/>
       <c r="D24" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="69" t="s">
-        <v>275</v>
-      </c>
       <c r="F24" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
@@ -5449,7 +5420,7 @@
       <c r="Q24" s="69"/>
       <c r="R24" s="69"/>
       <c r="S24" s="70"/>
-      <c r="V24" s="113"/>
+      <c r="V24" s="93"/>
     </row>
     <row r="25" spans="2:22" s="2" customFormat="1" ht="67.5">
       <c r="B25" s="85">
@@ -5458,390 +5429,383 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="J25" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K25" s="117" t="s">
-        <v>478</v>
+        <v>367</v>
+      </c>
+      <c r="K25" s="97" t="s">
+        <v>475</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S25" s="71"/>
-      <c r="T25" s="2">
-        <f xml:space="preserve"> (5*15) + 8</f>
-        <v>83</v>
-      </c>
-      <c r="U25" s="2">
-        <f>T25+T29</f>
-        <v>146</v>
-      </c>
-      <c r="V25" s="113"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="93"/>
     </row>
     <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B26" s="86"/>
       <c r="C26" s="68"/>
       <c r="D26" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="87" t="s">
-        <v>276</v>
-      </c>
       <c r="F26" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I26" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J26" s="87"/>
       <c r="K26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S26" s="76"/>
-      <c r="T26" s="58"/>
-      <c r="V26" s="113"/>
+      <c r="V26" s="93"/>
     </row>
     <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="89"/>
       <c r="C27" s="61"/>
       <c r="D27" s="74" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F27" s="74"/>
       <c r="G27" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K27" s="74" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L27" s="74" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M27" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N27" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O27" s="74"/>
       <c r="P27" s="74" t="s">
         <v>498</v>
       </c>
       <c r="Q27" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="R27" s="74"/>
       <c r="S27" s="75"/>
       <c r="T27" s="56"/>
-      <c r="V27" s="113"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="93"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="84"/>
       <c r="C28" s="2"/>
       <c r="D28" s="69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F28" s="69"/>
       <c r="G28" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K28" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="L28" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="M28" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="N28" s="69" t="s">
         <v>317</v>
-      </c>
-      <c r="M28" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="N28" s="69" t="s">
-        <v>319</v>
       </c>
       <c r="O28" s="69"/>
       <c r="P28" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q28" s="69" t="s">
         <v>259</v>
-      </c>
-      <c r="Q28" s="69" t="s">
-        <v>261</v>
       </c>
       <c r="R28" s="69"/>
       <c r="S28" s="70"/>
       <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:22" s="2" customFormat="1" ht="67.5">
       <c r="B29" s="85">
-        <f>B26+1</f>
-        <v>1</v>
+        <f>B25+1</f>
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="M29" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="S29" s="71"/>
-      <c r="T29" s="2">
-        <f xml:space="preserve"> (4*15) + 3</f>
-        <v>63</v>
-      </c>
-      <c r="V29" s="113"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="93"/>
     </row>
     <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B30" s="90"/>
       <c r="C30" s="60"/>
       <c r="D30" s="87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F30" s="87"/>
       <c r="G30" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30" s="87"/>
       <c r="I30" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J30" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K30" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="L30" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="L30" s="87" t="s">
+      <c r="M30" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="87" t="s">
         <v>318</v>
-      </c>
-      <c r="M30" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="N30" s="87" t="s">
-        <v>320</v>
       </c>
       <c r="O30" s="87"/>
       <c r="P30" s="87" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R30" s="87"/>
       <c r="S30" s="72"/>
-      <c r="T30" s="57"/>
-      <c r="V30" s="113"/>
+      <c r="V30" s="93"/>
     </row>
     <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B31" s="89"/>
       <c r="C31" s="61"/>
       <c r="D31" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F31" s="74" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H31" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O31" s="74" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P31" s="74" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="R31" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S31" s="75"/>
       <c r="T31" s="56"/>
-      <c r="V31" s="113"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="93"/>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="84"/>
       <c r="C32" s="2"/>
       <c r="D32" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F32" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="69" t="s">
-        <v>323</v>
-      </c>
       <c r="H32" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I32" s="69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J32" s="69"/>
       <c r="K32" s="69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N32" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O32" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="P32" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="P32" s="69" t="s">
-        <v>327</v>
-      </c>
       <c r="Q32" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R32" s="69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S32" s="70"/>
       <c r="T32" s="2"/>
@@ -5849,53 +5813,53 @@
     <row r="33" spans="2:20" ht="67.5">
       <c r="B33" s="85">
         <f>B29+1</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="M33" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="Q33" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S33" s="71"/>
       <c r="T33" s="2"/>
@@ -5904,45 +5868,45 @@
       <c r="B34" s="90"/>
       <c r="C34" s="2"/>
       <c r="D34" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="G34" s="87" t="s">
-        <v>324</v>
-      </c>
       <c r="H34" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I34" s="87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J34" s="87"/>
       <c r="K34" s="87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L34" s="87"/>
       <c r="M34" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N34" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O34" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="P34" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="P34" s="87" t="s">
-        <v>328</v>
-      </c>
       <c r="Q34" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R34" s="87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S34" s="76"/>
       <c r="T34" s="2"/>
@@ -5952,40 +5916,40 @@
       <c r="C35" s="73"/>
       <c r="D35" s="74"/>
       <c r="E35" s="74" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H35" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I35" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J35" s="74"/>
       <c r="K35" s="74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L35" s="74" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N35" s="74" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O35" s="74" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P35" s="74"/>
       <c r="Q35" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="R35" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S35" s="75"/>
       <c r="T35" s="56"/>
@@ -5995,40 +5959,40 @@
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I36" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J36" s="69"/>
       <c r="K36" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L36" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="M36" s="69" t="s">
-        <v>333</v>
-      </c>
       <c r="N36" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="O36" s="69" t="s">
         <v>334</v>
-      </c>
-      <c r="O36" s="69" t="s">
-        <v>336</v>
       </c>
       <c r="P36" s="69"/>
       <c r="Q36" s="69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R36" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S36" s="70"/>
       <c r="T36" s="2"/>
@@ -6036,53 +6000,53 @@
     <row r="37" spans="2:20" ht="67.5">
       <c r="B37" s="85">
         <f>B33+1</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E37" s="91" t="s">
+        <v>413</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="M37" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="M37" s="91" t="s">
+      <c r="O37" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="P37" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S37" s="71"/>
       <c r="T37" s="2"/>
@@ -6092,40 +6056,40 @@
       <c r="C38" s="68"/>
       <c r="D38" s="87"/>
       <c r="E38" s="87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F38" s="87"/>
       <c r="G38" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I38" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J38" s="87"/>
       <c r="K38" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L38" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M38" s="87" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N38" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="O38" s="87" t="s">
         <v>335</v>
-      </c>
-      <c r="O38" s="87" t="s">
-        <v>337</v>
       </c>
       <c r="P38" s="87"/>
       <c r="Q38" s="87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R38" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S38" s="76"/>
       <c r="T38" s="2"/>
@@ -6134,43 +6098,43 @@
       <c r="B39" s="89"/>
       <c r="C39" s="73"/>
       <c r="D39" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E39" s="74"/>
       <c r="F39" s="74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H39" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I39" s="74" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J39" s="74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K39" s="74"/>
       <c r="L39" s="74" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="M39" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N39" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O39" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P39" s="74"/>
       <c r="Q39" s="74" t="s">
+        <v>490</v>
+      </c>
+      <c r="R39" s="74" t="s">
         <v>493</v>
-      </c>
-      <c r="R39" s="74" t="s">
-        <v>496</v>
       </c>
       <c r="S39" s="75"/>
       <c r="T39" s="56"/>
@@ -6179,43 +6143,43 @@
       <c r="B40" s="84"/>
       <c r="C40" s="68"/>
       <c r="D40" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="H40" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="I40" s="69" t="s">
-        <v>340</v>
-      </c>
       <c r="J40" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K40" s="69"/>
       <c r="L40" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="M40" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="M40" s="69" t="s">
-        <v>261</v>
-      </c>
       <c r="N40" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O40" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P40" s="69"/>
       <c r="Q40" s="69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R40" s="69" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="S40" s="70"/>
       <c r="T40" s="2"/>
@@ -6223,53 +6187,53 @@
     <row r="41" spans="2:20" ht="67.5">
       <c r="B41" s="85">
         <f>B37+1</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="P41" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="R41" s="91" t="s">
         <v>423</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="R41" s="91" t="s">
-        <v>425</v>
       </c>
       <c r="S41" s="71"/>
       <c r="T41" s="2"/>
@@ -6278,43 +6242,43 @@
       <c r="B42" s="90"/>
       <c r="C42" s="68"/>
       <c r="D42" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" s="87"/>
       <c r="F42" s="87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G42" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="H42" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>341</v>
-      </c>
       <c r="J42" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K42" s="87"/>
       <c r="L42" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="M42" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="M42" s="87" t="s">
-        <v>262</v>
-      </c>
       <c r="N42" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O42" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P42" s="87"/>
       <c r="Q42" s="87" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R42" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S42" s="76"/>
       <c r="T42" s="2"/>
@@ -6323,10 +6287,10 @@
       <c r="B43" s="89"/>
       <c r="C43" s="73"/>
       <c r="D43" s="74" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
@@ -6348,10 +6312,10 @@
       <c r="B44" s="84"/>
       <c r="C44" s="68"/>
       <c r="D44" s="69" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
@@ -6372,53 +6336,53 @@
     <row r="45" spans="2:20" ht="67.5">
       <c r="B45" s="85">
         <f>B41+1</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" s="68"/>
       <c r="D45" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S45" s="71"/>
       <c r="T45" s="2"/>
@@ -6427,47 +6391,47 @@
       <c r="B46" s="90"/>
       <c r="C46" s="68"/>
       <c r="D46" s="87" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S46" s="70"/>
       <c r="T46" s="2"/>
@@ -6517,7 +6481,7 @@
     <row r="49" spans="2:20" ht="67.5">
       <c r="B49" s="85">
         <f>B45+1</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" s="68"/>
       <c r="D49" s="4"/>
@@ -6571,9 +6535,7 @@
       <c r="R57" s="69"/>
     </row>
     <row r="58" spans="2:20" ht="67.5">
-      <c r="R58" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="R58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6581,106 +6543,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="57" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="53" priority="11">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="50" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="43" priority="27">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="41" priority="25">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="24">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9186,212 +9148,212 @@
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="92">
+      <c r="B2" s="101">
         <f xml:space="preserve"> ROW() - 1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="2:10" ht="21" customHeight="1">
-      <c r="B3" s="92"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="2:10" ht="21" customHeight="1">
-      <c r="B4" s="92"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="92"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="2:10" ht="21" customHeight="1">
-      <c r="B6" s="92"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
     </row>
     <row r="7" spans="2:10" ht="21" customHeight="1">
-      <c r="B7" s="92"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="2:10" ht="21" customHeight="1">
-      <c r="B8" s="92"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="2:10" ht="21" customHeight="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="2:10" ht="21" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="92">
+      <c r="B11" s="101">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="92"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="92"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="92"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="92"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="92"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="92"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="92"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="92"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10763,7 +10725,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="111" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -10781,7 +10743,7 @@
       <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="111" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -10806,7 +10768,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="103"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
@@ -10826,7 +10788,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="15" t="s">
         <v>57</v>
       </c>
@@ -10848,7 +10810,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="103"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="19" t="s">
         <v>62</v>
       </c>
@@ -10864,7 +10826,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="19" t="s">
         <v>62</v>
       </c>
@@ -10886,7 +10848,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="103"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
@@ -10902,7 +10864,7 @@
       <c r="G8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="22" t="s">
         <v>64</v>
       </c>
@@ -10924,7 +10886,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="15" t="s">
         <v>73</v>
       </c>
@@ -10940,7 +10902,7 @@
       <c r="G9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="15" t="s">
         <v>73</v>
       </c>
@@ -10962,7 +10924,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
@@ -10978,7 +10940,7 @@
       <c r="G10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="15" t="s">
         <v>83</v>
       </c>
@@ -11001,7 +10963,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="111" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -11019,7 +10981,7 @@
       <c r="G11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="111" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -11043,7 +11005,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
@@ -11063,7 +11025,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="103"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
@@ -11083,7 +11045,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="19" t="s">
         <v>62</v>
       </c>
@@ -11097,7 +11059,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="19" t="s">
         <v>62</v>
       </c>
@@ -11117,7 +11079,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
@@ -11131,7 +11093,7 @@
       <c r="G14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="15" t="s">
         <v>64</v>
       </c>
@@ -11151,7 +11113,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="15" t="s">
         <v>73</v>
       </c>
@@ -11165,7 +11127,7 @@
       <c r="G15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="103"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="15" t="s">
         <v>73</v>
       </c>
@@ -11185,7 +11147,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="104"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
@@ -11199,7 +11161,7 @@
       <c r="G16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="104"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="15" t="s">
         <v>83</v>
       </c>
